--- a/00Temporal/Operativos Permanentes.xlsx
+++ b/00Temporal/Operativos Permanentes.xlsx
@@ -284,7 +284,7 @@
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="1">
-    <numFmt numFmtId="169" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
+    <numFmt numFmtId="164" formatCode="[$-F800]dddd\,\ mmmm\ dd\,\ yyyy"/>
   </numFmts>
   <fonts count="4" x14ac:knownFonts="1">
     <font>
@@ -318,7 +318,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="3">
+  <fills count="4">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -328,6 +328,12 @@
     <fill>
       <patternFill patternType="solid">
         <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
@@ -540,27 +546,36 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="25">
+  <cellXfs count="34">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment vertical="center"/>
-    </xf>
-    <xf numFmtId="169" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
@@ -576,41 +591,59 @@
     <xf numFmtId="0" fontId="2" fillId="2" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="13" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="14" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="16" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="3" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="2" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="1" fillId="2" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="9" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="10" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="5" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="10" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="164" fontId="1" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="6" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="8" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="15" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="1" fillId="3" borderId="2" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="11" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="12" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="4" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="7" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -988,8 +1021,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:J54"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A33" zoomScaleNormal="100" workbookViewId="0">
-      <selection sqref="A1:I55"/>
+    <sheetView tabSelected="1" zoomScaleNormal="100" workbookViewId="0">
+      <selection sqref="A1:I1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1007,885 +1040,885 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:9" ht="21.75" thickBot="1" x14ac:dyDescent="0.4">
-      <c r="A1" s="17" t="s">
+      <c r="A1" s="4" t="s">
         <v>80</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="19"/>
+      <c r="B1" s="5"/>
+      <c r="C1" s="5"/>
+      <c r="D1" s="5"/>
+      <c r="E1" s="5"/>
+      <c r="F1" s="5"/>
+      <c r="G1" s="5"/>
+      <c r="H1" s="5"/>
+      <c r="I1" s="6"/>
     </row>
     <row r="2" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A2" s="16" t="s">
+      <c r="A2" s="3" t="s">
         <v>0</v>
       </c>
-      <c r="B2" s="2" t="s">
+      <c r="B2" s="27" t="s">
         <v>78</v>
       </c>
-      <c r="C2" s="3"/>
-      <c r="D2" s="2" t="s">
+      <c r="C2" s="28"/>
+      <c r="D2" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="E2" s="3"/>
-      <c r="F2" s="2" t="s">
+      <c r="E2" s="28"/>
+      <c r="F2" s="27" t="s">
         <v>2</v>
       </c>
-      <c r="G2" s="3"/>
-      <c r="H2" s="2" t="s">
+      <c r="G2" s="28"/>
+      <c r="H2" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="I2" s="3"/>
+      <c r="I2" s="28"/>
     </row>
     <row r="3" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A3" s="20" t="s">
+      <c r="A3" s="22" t="s">
         <v>4</v>
       </c>
-      <c r="B3" s="15"/>
-      <c r="C3" s="15"/>
-      <c r="D3" s="15"/>
-      <c r="E3" s="15"/>
-      <c r="F3" s="15"/>
-      <c r="G3" s="15"/>
-      <c r="H3" s="15"/>
-      <c r="I3" s="21"/>
+      <c r="B3" s="16"/>
+      <c r="C3" s="16"/>
+      <c r="D3" s="16"/>
+      <c r="E3" s="16"/>
+      <c r="F3" s="16"/>
+      <c r="G3" s="16"/>
+      <c r="H3" s="16"/>
+      <c r="I3" s="17"/>
     </row>
     <row r="4" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A4" s="4">
+      <c r="A4" s="23">
         <v>42979</v>
       </c>
-      <c r="B4" s="5" t="s">
+      <c r="B4" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C4" s="6" t="s">
+      <c r="C4" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D4" s="5" t="s">
+      <c r="D4" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E4" s="6" t="s">
+      <c r="E4" s="2" t="s">
         <v>35</v>
       </c>
-      <c r="F4" s="5" t="s">
+      <c r="F4" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G4" s="6" t="s">
+      <c r="G4" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="H4" s="5" t="s">
+      <c r="H4" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I4" s="6" t="s">
+      <c r="I4" s="2" t="s">
         <v>59</v>
       </c>
     </row>
     <row r="5" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A5" s="7"/>
-      <c r="B5" s="8"/>
-      <c r="C5" s="6" t="s">
+      <c r="A5" s="25"/>
+      <c r="B5" s="26"/>
+      <c r="C5" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D5" s="8"/>
-      <c r="E5" s="6" t="s">
+      <c r="D5" s="11"/>
+      <c r="E5" s="2" t="s">
         <v>38</v>
       </c>
-      <c r="F5" s="8"/>
-      <c r="G5" s="6" t="s">
+      <c r="F5" s="11"/>
+      <c r="G5" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="H5" s="8"/>
-      <c r="I5" s="6" t="s">
+      <c r="H5" s="11"/>
+      <c r="I5" s="2" t="s">
         <v>23</v>
       </c>
     </row>
     <row r="6" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A6" s="4">
+      <c r="A6" s="23">
         <v>42980</v>
       </c>
-      <c r="B6" s="5" t="s">
+      <c r="B6" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C6" s="6" t="s">
+      <c r="C6" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="D6" s="5" t="s">
+      <c r="D6" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E6" s="6" t="s">
+      <c r="E6" s="2" t="s">
         <v>22</v>
       </c>
-      <c r="F6" s="5" t="s">
+      <c r="F6" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G6" s="6" t="s">
+      <c r="G6" s="2" t="s">
         <v>68</v>
       </c>
-      <c r="H6" s="5" t="s">
+      <c r="H6" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I6" s="6" t="s">
+      <c r="I6" s="2" t="s">
         <v>44</v>
       </c>
     </row>
     <row r="7" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A7" s="7"/>
-      <c r="B7" s="8"/>
-      <c r="C7" s="6" t="s">
+      <c r="A7" s="25"/>
+      <c r="B7" s="26"/>
+      <c r="C7" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="D7" s="8"/>
-      <c r="E7" s="6" t="s">
+      <c r="D7" s="11"/>
+      <c r="E7" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F7" s="8"/>
-      <c r="G7" s="6" t="s">
+      <c r="F7" s="11"/>
+      <c r="G7" s="2" t="s">
         <v>69</v>
       </c>
-      <c r="H7" s="8"/>
-      <c r="I7" s="6" t="s">
+      <c r="H7" s="11"/>
+      <c r="I7" s="2" t="s">
         <v>53</v>
       </c>
     </row>
     <row r="8" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A8" s="15" t="s">
+      <c r="A8" s="16" t="s">
         <v>27</v>
       </c>
-      <c r="B8" s="15"/>
-      <c r="C8" s="15"/>
-      <c r="D8" s="15"/>
-      <c r="E8" s="15"/>
-      <c r="F8" s="15"/>
-      <c r="G8" s="15"/>
-      <c r="H8" s="15"/>
-      <c r="I8" s="21"/>
+      <c r="B8" s="16"/>
+      <c r="C8" s="16"/>
+      <c r="D8" s="16"/>
+      <c r="E8" s="16"/>
+      <c r="F8" s="16"/>
+      <c r="G8" s="16"/>
+      <c r="H8" s="16"/>
+      <c r="I8" s="17"/>
     </row>
     <row r="9" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A9" s="4">
+      <c r="A9" s="23">
         <v>42984</v>
       </c>
-      <c r="B9" s="9" t="s">
+      <c r="B9" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C9" s="10"/>
-      <c r="D9" s="9" t="s">
+      <c r="C9" s="30"/>
+      <c r="D9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E9" s="10"/>
-      <c r="F9" s="5" t="s">
+      <c r="E9" s="13"/>
+      <c r="F9" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G9" s="6" t="s">
+      <c r="G9" s="2" t="s">
         <v>31</v>
       </c>
-      <c r="H9" s="9" t="s">
+      <c r="H9" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I9" s="10"/>
+      <c r="I9" s="13"/>
     </row>
     <row r="10" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A10" s="7"/>
-      <c r="B10" s="11"/>
-      <c r="C10" s="12"/>
-      <c r="D10" s="11"/>
-      <c r="E10" s="12"/>
-      <c r="F10" s="8"/>
-      <c r="G10" s="6" t="s">
+      <c r="A10" s="25"/>
+      <c r="B10" s="31"/>
+      <c r="C10" s="32"/>
+      <c r="D10" s="14"/>
+      <c r="E10" s="15"/>
+      <c r="F10" s="11"/>
+      <c r="G10" s="2" t="s">
         <v>67</v>
       </c>
-      <c r="H10" s="11"/>
-      <c r="I10" s="12"/>
+      <c r="H10" s="14"/>
+      <c r="I10" s="15"/>
     </row>
     <row r="11" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A11" s="4">
+      <c r="A11" s="23">
         <v>42985</v>
       </c>
-      <c r="B11" s="9" t="s">
+      <c r="B11" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C11" s="10"/>
-      <c r="D11" s="9" t="s">
+      <c r="C11" s="30"/>
+      <c r="D11" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E11" s="10"/>
-      <c r="F11" s="5" t="s">
+      <c r="E11" s="13"/>
+      <c r="F11" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G11" s="6" t="s">
+      <c r="G11" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H11" s="5" t="s">
+      <c r="H11" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I11" s="6" t="s">
+      <c r="I11" s="2" t="s">
         <v>15</v>
       </c>
     </row>
     <row r="12" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A12" s="7"/>
-      <c r="B12" s="11"/>
-      <c r="C12" s="12"/>
-      <c r="D12" s="11"/>
-      <c r="E12" s="12"/>
-      <c r="F12" s="8"/>
-      <c r="G12" s="6" t="s">
+      <c r="A12" s="25"/>
+      <c r="B12" s="31"/>
+      <c r="C12" s="32"/>
+      <c r="D12" s="14"/>
+      <c r="E12" s="15"/>
+      <c r="F12" s="11"/>
+      <c r="G12" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H12" s="8"/>
-      <c r="I12" s="6" t="s">
+      <c r="H12" s="11"/>
+      <c r="I12" s="2" t="s">
         <v>19</v>
       </c>
     </row>
     <row r="13" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A13" s="4">
+      <c r="A13" s="23">
         <v>42986</v>
       </c>
-      <c r="B13" s="5" t="s">
+      <c r="B13" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C13" s="6" t="s">
+      <c r="C13" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="D13" s="5" t="s">
+      <c r="D13" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E13" s="6" t="s">
+      <c r="E13" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="F13" s="13" t="s">
+      <c r="F13" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G13" s="6" t="s">
+      <c r="G13" s="2" t="s">
         <v>36</v>
       </c>
-      <c r="H13" s="5" t="s">
+      <c r="H13" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I13" s="6" t="s">
+      <c r="I13" s="2" t="s">
         <v>29</v>
       </c>
     </row>
     <row r="14" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A14" s="7"/>
-      <c r="B14" s="8"/>
-      <c r="C14" s="6" t="s">
+      <c r="A14" s="25"/>
+      <c r="B14" s="26"/>
+      <c r="C14" s="33" t="s">
         <v>56</v>
       </c>
-      <c r="D14" s="8"/>
-      <c r="E14" s="6" t="s">
+      <c r="D14" s="11"/>
+      <c r="E14" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="F14" s="14"/>
-      <c r="G14" s="6" t="s">
+      <c r="F14" s="21"/>
+      <c r="G14" s="2" t="s">
         <v>39</v>
       </c>
-      <c r="H14" s="8"/>
-      <c r="I14" s="6" t="s">
+      <c r="H14" s="11"/>
+      <c r="I14" s="2" t="s">
         <v>56</v>
       </c>
     </row>
     <row r="15" spans="1:9" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A15" s="4">
+      <c r="A15" s="23">
         <v>42987</v>
       </c>
-      <c r="B15" s="5" t="s">
+      <c r="B15" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C15" s="6" t="s">
+      <c r="C15" s="33" t="s">
         <v>54</v>
       </c>
-      <c r="D15" s="5" t="s">
+      <c r="D15" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E15" s="6" t="s">
+      <c r="E15" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="F15" s="13" t="s">
+      <c r="F15" s="20" t="s">
         <v>9</v>
       </c>
-      <c r="G15" s="6" t="s">
+      <c r="G15" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H15" s="5" t="s">
+      <c r="H15" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I15" s="6" t="s">
+      <c r="I15" s="2" t="s">
         <v>70</v>
       </c>
     </row>
     <row r="16" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A16" s="7"/>
-      <c r="B16" s="8"/>
-      <c r="C16" s="6" t="s">
+      <c r="A16" s="25"/>
+      <c r="B16" s="26"/>
+      <c r="C16" s="33" t="s">
         <v>55</v>
       </c>
-      <c r="D16" s="8"/>
-      <c r="E16" s="6" t="s">
+      <c r="D16" s="11"/>
+      <c r="E16" s="2" t="s">
         <v>40</v>
       </c>
-      <c r="F16" s="14"/>
-      <c r="G16" s="6" t="s">
+      <c r="F16" s="21"/>
+      <c r="G16" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H16" s="8"/>
-      <c r="I16" s="6" t="s">
+      <c r="H16" s="11"/>
+      <c r="I16" s="2" t="s">
         <v>26</v>
       </c>
     </row>
     <row r="17" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A17" s="22" t="s">
+      <c r="A17" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B17" s="22"/>
-      <c r="C17" s="22"/>
-      <c r="D17" s="22"/>
-      <c r="E17" s="22"/>
-      <c r="F17" s="22"/>
-      <c r="G17" s="22"/>
-      <c r="H17" s="22"/>
-      <c r="I17" s="23"/>
+      <c r="B17" s="18"/>
+      <c r="C17" s="18"/>
+      <c r="D17" s="18"/>
+      <c r="E17" s="18"/>
+      <c r="F17" s="18"/>
+      <c r="G17" s="18"/>
+      <c r="H17" s="18"/>
+      <c r="I17" s="19"/>
     </row>
     <row r="18" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A18" s="4">
+      <c r="A18" s="23">
         <v>42991</v>
       </c>
-      <c r="B18" s="9" t="s">
+      <c r="B18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C18" s="10"/>
-      <c r="D18" s="9" t="s">
+      <c r="C18" s="13"/>
+      <c r="D18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E18" s="10"/>
-      <c r="F18" s="5" t="s">
+      <c r="E18" s="13"/>
+      <c r="F18" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G18" s="6" t="s">
+      <c r="G18" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H18" s="9" t="s">
+      <c r="H18" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I18" s="10"/>
+      <c r="I18" s="13"/>
     </row>
     <row r="19" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A19" s="7"/>
-      <c r="B19" s="11"/>
-      <c r="C19" s="12"/>
-      <c r="D19" s="11"/>
-      <c r="E19" s="12"/>
-      <c r="F19" s="8"/>
-      <c r="G19" s="6" t="s">
+      <c r="A19" s="25"/>
+      <c r="B19" s="14"/>
+      <c r="C19" s="15"/>
+      <c r="D19" s="14"/>
+      <c r="E19" s="15"/>
+      <c r="F19" s="11"/>
+      <c r="G19" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H19" s="11"/>
-      <c r="I19" s="12"/>
+      <c r="H19" s="14"/>
+      <c r="I19" s="15"/>
     </row>
     <row r="20" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A20" s="4">
+      <c r="A20" s="23">
         <v>42992</v>
       </c>
-      <c r="B20" s="9" t="s">
+      <c r="B20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C20" s="10"/>
-      <c r="D20" s="9" t="s">
+      <c r="C20" s="13"/>
+      <c r="D20" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E20" s="10"/>
-      <c r="F20" s="5" t="s">
+      <c r="E20" s="13"/>
+      <c r="F20" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G20" s="6" t="s">
+      <c r="G20" s="2" t="s">
         <v>63</v>
       </c>
-      <c r="H20" s="5" t="s">
+      <c r="H20" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I20" s="6" t="s">
+      <c r="I20" s="2" t="s">
         <v>45</v>
       </c>
     </row>
     <row r="21" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A21" s="7"/>
-      <c r="B21" s="11"/>
-      <c r="C21" s="12"/>
-      <c r="D21" s="11"/>
-      <c r="E21" s="12"/>
-      <c r="F21" s="8"/>
-      <c r="G21" s="6" t="s">
+      <c r="A21" s="25"/>
+      <c r="B21" s="14"/>
+      <c r="C21" s="15"/>
+      <c r="D21" s="14"/>
+      <c r="E21" s="15"/>
+      <c r="F21" s="11"/>
+      <c r="G21" s="2" t="s">
         <v>37</v>
       </c>
-      <c r="H21" s="8"/>
-      <c r="I21" s="6" t="s">
+      <c r="H21" s="11"/>
+      <c r="I21" s="2" t="s">
         <v>43</v>
       </c>
     </row>
     <row r="22" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A22" s="4">
+      <c r="A22" s="23">
         <v>42993</v>
       </c>
-      <c r="B22" s="5" t="s">
+      <c r="B22" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C22" s="6" t="s">
+      <c r="C22" s="2" t="s">
         <v>23</v>
       </c>
-      <c r="D22" s="5" t="s">
+      <c r="D22" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E22" s="6" t="s">
+      <c r="E22" s="2" t="s">
         <v>59</v>
       </c>
-      <c r="F22" s="5" t="s">
+      <c r="F22" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G22" s="6" t="s">
+      <c r="G22" s="2" t="s">
         <v>57</v>
       </c>
-      <c r="H22" s="5" t="s">
+      <c r="H22" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I22" s="6" t="s">
+      <c r="I22" s="2" t="s">
         <v>33</v>
       </c>
     </row>
     <row r="23" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A23" s="7"/>
-      <c r="B23" s="8"/>
-      <c r="C23" s="6" t="s">
+      <c r="A23" s="25"/>
+      <c r="B23" s="26"/>
+      <c r="C23" s="2" t="s">
         <v>76</v>
       </c>
-      <c r="D23" s="8"/>
-      <c r="E23" s="6" t="s">
+      <c r="D23" s="11"/>
+      <c r="E23" s="2" t="s">
         <v>77</v>
       </c>
-      <c r="F23" s="8"/>
-      <c r="G23" s="6" t="s">
+      <c r="F23" s="11"/>
+      <c r="G23" s="2" t="s">
         <v>61</v>
       </c>
-      <c r="H23" s="8"/>
-      <c r="I23" s="6" t="s">
+      <c r="H23" s="11"/>
+      <c r="I23" s="2" t="s">
         <v>64</v>
       </c>
     </row>
     <row r="24" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A24" s="4">
+      <c r="A24" s="23">
         <v>42994</v>
       </c>
-      <c r="B24" s="5" t="s">
+      <c r="B24" s="24" t="s">
         <v>14</v>
       </c>
-      <c r="C24" s="6" t="s">
+      <c r="C24" s="2" t="s">
         <v>41</v>
       </c>
-      <c r="D24" s="5" t="s">
+      <c r="D24" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E24" s="6" t="s">
+      <c r="E24" s="2" t="s">
         <v>53</v>
       </c>
-      <c r="F24" s="5" t="s">
+      <c r="F24" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G24" s="6" t="s">
+      <c r="G24" s="2" t="s">
         <v>52</v>
       </c>
-      <c r="H24" s="5" t="s">
+      <c r="H24" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I24" s="6" t="s">
+      <c r="I24" s="2" t="s">
         <v>31</v>
       </c>
     </row>
     <row r="25" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A25" s="7"/>
-      <c r="B25" s="8"/>
-      <c r="C25" s="6" t="s">
+      <c r="A25" s="25"/>
+      <c r="B25" s="26"/>
+      <c r="C25" s="2" t="s">
         <v>65</v>
       </c>
-      <c r="D25" s="8"/>
-      <c r="E25" s="6" t="s">
+      <c r="D25" s="11"/>
+      <c r="E25" s="2" t="s">
         <v>26</v>
       </c>
-      <c r="F25" s="8"/>
-      <c r="G25" s="6" t="s">
+      <c r="F25" s="11"/>
+      <c r="G25" s="2" t="s">
         <v>24</v>
       </c>
-      <c r="H25" s="8"/>
-      <c r="I25" s="6" t="s">
+      <c r="H25" s="11"/>
+      <c r="I25" s="2" t="s">
         <v>32</v>
       </c>
     </row>
     <row r="26" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A26" s="15" t="s">
+      <c r="A26" s="16" t="s">
         <v>42</v>
       </c>
-      <c r="B26" s="15"/>
-      <c r="C26" s="15"/>
-      <c r="D26" s="15"/>
-      <c r="E26" s="15"/>
-      <c r="F26" s="15"/>
-      <c r="G26" s="15"/>
-      <c r="H26" s="15"/>
-      <c r="I26" s="21"/>
+      <c r="B26" s="16"/>
+      <c r="C26" s="16"/>
+      <c r="D26" s="16"/>
+      <c r="E26" s="16"/>
+      <c r="F26" s="16"/>
+      <c r="G26" s="16"/>
+      <c r="H26" s="16"/>
+      <c r="I26" s="17"/>
     </row>
     <row r="27" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A27" s="4">
+      <c r="A27" s="8">
         <v>42998</v>
       </c>
-      <c r="B27" s="9" t="s">
+      <c r="B27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C27" s="10"/>
-      <c r="D27" s="9" t="s">
+      <c r="C27" s="13"/>
+      <c r="D27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E27" s="10"/>
-      <c r="F27" s="5" t="s">
+      <c r="E27" s="13"/>
+      <c r="F27" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G27" s="6" t="s">
+      <c r="G27" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="H27" s="9" t="s">
+      <c r="H27" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I27" s="10"/>
+      <c r="I27" s="13"/>
     </row>
     <row r="28" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A28" s="7"/>
-      <c r="B28" s="11"/>
-      <c r="C28" s="12"/>
-      <c r="D28" s="11"/>
-      <c r="E28" s="12"/>
-      <c r="F28" s="8"/>
-      <c r="G28" s="6" t="s">
+      <c r="A28" s="9"/>
+      <c r="B28" s="14"/>
+      <c r="C28" s="15"/>
+      <c r="D28" s="14"/>
+      <c r="E28" s="15"/>
+      <c r="F28" s="11"/>
+      <c r="G28" s="2" t="s">
         <v>47</v>
       </c>
-      <c r="H28" s="11"/>
-      <c r="I28" s="12"/>
+      <c r="H28" s="14"/>
+      <c r="I28" s="15"/>
     </row>
     <row r="29" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A29" s="4">
+      <c r="A29" s="8">
         <v>42999</v>
       </c>
-      <c r="B29" s="9" t="s">
+      <c r="B29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C29" s="10"/>
-      <c r="D29" s="9" t="s">
+      <c r="C29" s="13"/>
+      <c r="D29" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E29" s="10"/>
-      <c r="F29" s="5" t="s">
+      <c r="E29" s="13"/>
+      <c r="F29" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G29" s="6" t="s">
+      <c r="G29" s="2" t="s">
         <v>7</v>
       </c>
-      <c r="H29" s="5" t="s">
+      <c r="H29" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I29" s="6" t="s">
+      <c r="I29" s="2" t="s">
         <v>35</v>
       </c>
     </row>
     <row r="30" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A30" s="7"/>
-      <c r="B30" s="11"/>
-      <c r="C30" s="12"/>
-      <c r="D30" s="11"/>
-      <c r="E30" s="12"/>
-      <c r="F30" s="8"/>
-      <c r="G30" s="6" t="s">
+      <c r="A30" s="9"/>
+      <c r="B30" s="14"/>
+      <c r="C30" s="15"/>
+      <c r="D30" s="14"/>
+      <c r="E30" s="15"/>
+      <c r="F30" s="11"/>
+      <c r="G30" s="2" t="s">
         <v>66</v>
       </c>
-      <c r="H30" s="8"/>
-      <c r="I30" s="6" t="s">
+      <c r="H30" s="11"/>
+      <c r="I30" s="2" t="s">
         <v>38</v>
       </c>
     </row>
     <row r="31" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A31" s="4">
+      <c r="A31" s="8">
         <v>43000</v>
       </c>
-      <c r="B31" s="5" t="s">
+      <c r="B31" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C31" s="6" t="s">
+      <c r="C31" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="D31" s="5" t="s">
+      <c r="D31" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E31" s="6" t="s">
+      <c r="E31" s="2" t="s">
         <v>29</v>
       </c>
-      <c r="F31" s="5" t="s">
+      <c r="F31" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G31" s="6" t="s">
+      <c r="G31" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="H31" s="5" t="s">
+      <c r="H31" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I31" s="6" t="s">
+      <c r="I31" s="2" t="s">
         <v>73</v>
       </c>
     </row>
     <row r="32" spans="1:9" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A32" s="7"/>
-      <c r="B32" s="8"/>
-      <c r="C32" s="6" t="s">
+      <c r="A32" s="9"/>
+      <c r="B32" s="11"/>
+      <c r="C32" s="2" t="s">
         <v>62</v>
       </c>
-      <c r="D32" s="8"/>
-      <c r="E32" s="6" t="s">
+      <c r="D32" s="11"/>
+      <c r="E32" s="2" t="s">
         <v>25</v>
       </c>
-      <c r="F32" s="8"/>
-      <c r="G32" s="6" t="s">
+      <c r="F32" s="11"/>
+      <c r="G32" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="H32" s="8"/>
-      <c r="I32" s="6" t="s">
+      <c r="H32" s="11"/>
+      <c r="I32" s="2" t="s">
         <v>74</v>
       </c>
     </row>
     <row r="33" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A33" s="4">
+      <c r="A33" s="8">
         <v>43001</v>
       </c>
-      <c r="B33" s="5" t="s">
+      <c r="B33" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C33" s="6" t="s">
+      <c r="C33" s="2" t="s">
         <v>43</v>
       </c>
-      <c r="D33" s="5" t="s">
+      <c r="D33" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E33" s="6" t="s">
+      <c r="E33" s="2" t="s">
         <v>33</v>
       </c>
-      <c r="F33" s="5" t="s">
+      <c r="F33" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G33" s="6" t="s">
+      <c r="G33" s="2" t="s">
         <v>28</v>
       </c>
-      <c r="H33" s="5" t="s">
+      <c r="H33" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I33" s="6" t="s">
+      <c r="I33" s="2" t="s">
         <v>17</v>
       </c>
     </row>
     <row r="34" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A34" s="7"/>
-      <c r="B34" s="8"/>
-      <c r="C34" s="6" t="s">
+      <c r="A34" s="9"/>
+      <c r="B34" s="11"/>
+      <c r="C34" s="2" t="s">
         <v>60</v>
       </c>
-      <c r="D34" s="8"/>
-      <c r="E34" s="6" t="s">
+      <c r="D34" s="11"/>
+      <c r="E34" s="2" t="s">
         <v>64</v>
       </c>
-      <c r="F34" s="8"/>
-      <c r="G34" s="6" t="s">
+      <c r="F34" s="11"/>
+      <c r="G34" s="2" t="s">
         <v>8</v>
       </c>
-      <c r="H34" s="8"/>
-      <c r="I34" s="6" t="s">
+      <c r="H34" s="11"/>
+      <c r="I34" s="2" t="s">
         <v>21</v>
       </c>
     </row>
     <row r="35" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A35" s="15" t="s">
+      <c r="A35" s="16" t="s">
         <v>48</v>
       </c>
-      <c r="B35" s="15"/>
-      <c r="C35" s="15"/>
-      <c r="D35" s="15"/>
-      <c r="E35" s="15"/>
-      <c r="F35" s="15"/>
-      <c r="G35" s="15"/>
-      <c r="H35" s="15"/>
-      <c r="I35" s="21"/>
+      <c r="B35" s="16"/>
+      <c r="C35" s="16"/>
+      <c r="D35" s="16"/>
+      <c r="E35" s="16"/>
+      <c r="F35" s="16"/>
+      <c r="G35" s="16"/>
+      <c r="H35" s="16"/>
+      <c r="I35" s="17"/>
     </row>
     <row r="36" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A36" s="4">
+      <c r="A36" s="8">
         <v>43005</v>
       </c>
-      <c r="B36" s="9" t="s">
+      <c r="B36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C36" s="10"/>
-      <c r="D36" s="9" t="s">
+      <c r="C36" s="13"/>
+      <c r="D36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E36" s="10"/>
-      <c r="F36" s="5" t="s">
+      <c r="E36" s="13"/>
+      <c r="F36" s="10" t="s">
         <v>6</v>
       </c>
-      <c r="G36" s="6" t="s">
+      <c r="G36" s="2" t="s">
         <v>17</v>
       </c>
-      <c r="H36" s="9" t="s">
+      <c r="H36" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="I36" s="10"/>
+      <c r="I36" s="13"/>
     </row>
     <row r="37" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A37" s="7"/>
-      <c r="B37" s="11"/>
-      <c r="C37" s="12"/>
-      <c r="D37" s="11"/>
-      <c r="E37" s="12"/>
-      <c r="F37" s="8"/>
-      <c r="G37" s="6" t="s">
+      <c r="A37" s="9"/>
+      <c r="B37" s="14"/>
+      <c r="C37" s="15"/>
+      <c r="D37" s="14"/>
+      <c r="E37" s="15"/>
+      <c r="F37" s="11"/>
+      <c r="G37" s="2" t="s">
         <v>21</v>
       </c>
-      <c r="H37" s="11"/>
-      <c r="I37" s="12"/>
+      <c r="H37" s="14"/>
+      <c r="I37" s="15"/>
     </row>
     <row r="38" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A38" s="4">
+      <c r="A38" s="8">
         <v>43006</v>
       </c>
-      <c r="B38" s="9" t="s">
+      <c r="B38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="C38" s="10"/>
-      <c r="D38" s="9" t="s">
+      <c r="C38" s="13"/>
+      <c r="D38" s="12" t="s">
         <v>5</v>
       </c>
-      <c r="E38" s="10"/>
-      <c r="F38" s="5" t="s">
+      <c r="E38" s="13"/>
+      <c r="F38" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G38" s="6" t="s">
+      <c r="G38" s="2" t="s">
         <v>10</v>
       </c>
-      <c r="H38" s="5" t="s">
+      <c r="H38" s="10" t="s">
         <v>11</v>
       </c>
-      <c r="I38" s="6" t="s">
+      <c r="I38" s="2" t="s">
         <v>36</v>
       </c>
     </row>
     <row r="39" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A39" s="7"/>
-      <c r="B39" s="11"/>
-      <c r="C39" s="12"/>
-      <c r="D39" s="11"/>
-      <c r="E39" s="12"/>
-      <c r="F39" s="8"/>
-      <c r="G39" s="6" t="s">
+      <c r="A39" s="9"/>
+      <c r="B39" s="14"/>
+      <c r="C39" s="15"/>
+      <c r="D39" s="14"/>
+      <c r="E39" s="15"/>
+      <c r="F39" s="11"/>
+      <c r="G39" s="2" t="s">
         <v>58</v>
       </c>
-      <c r="H39" s="8"/>
-      <c r="I39" s="6" t="s">
+      <c r="H39" s="11"/>
+      <c r="I39" s="2" t="s">
         <v>39</v>
       </c>
     </row>
     <row r="40" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A40" s="4">
+      <c r="A40" s="8">
         <v>43007</v>
       </c>
-      <c r="B40" s="5" t="s">
+      <c r="B40" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C40" s="6" t="s">
+      <c r="C40" s="2" t="s">
         <v>12</v>
       </c>
-      <c r="D40" s="5" t="s">
+      <c r="D40" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E40" s="6" t="s">
+      <c r="E40" s="2" t="s">
         <v>15</v>
       </c>
-      <c r="F40" s="5" t="s">
+      <c r="F40" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G40" s="6" t="s">
+      <c r="G40" s="2" t="s">
         <v>46</v>
       </c>
-      <c r="H40" s="5" t="s">
+      <c r="H40" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I40" s="6" t="s">
+      <c r="I40" s="2" t="s">
         <v>7</v>
       </c>
     </row>
     <row r="41" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A41" s="7"/>
-      <c r="B41" s="8"/>
-      <c r="C41" s="6" t="s">
+      <c r="A41" s="9"/>
+      <c r="B41" s="11"/>
+      <c r="C41" s="2" t="s">
         <v>13</v>
       </c>
-      <c r="D41" s="8"/>
-      <c r="E41" s="6" t="s">
+      <c r="D41" s="11"/>
+      <c r="E41" s="2" t="s">
         <v>49</v>
       </c>
-      <c r="F41" s="8"/>
-      <c r="G41" s="6" t="s">
+      <c r="F41" s="11"/>
+      <c r="G41" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="H41" s="8"/>
-      <c r="I41" s="6" t="s">
+      <c r="H41" s="11"/>
+      <c r="I41" s="2" t="s">
         <v>66</v>
       </c>
     </row>
     <row r="42" spans="1:10" ht="15.75" customHeight="1" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A42" s="4">
+      <c r="A42" s="8">
         <v>43008</v>
       </c>
-      <c r="B42" s="5" t="s">
+      <c r="B42" s="10" t="s">
         <v>14</v>
       </c>
-      <c r="C42" s="6" t="s">
+      <c r="C42" s="2" t="s">
         <v>50</v>
       </c>
-      <c r="D42" s="5" t="s">
+      <c r="D42" s="10" t="s">
         <v>16</v>
       </c>
-      <c r="E42" s="6" t="s">
+      <c r="E42" s="2" t="s">
         <v>34</v>
       </c>
-      <c r="F42" s="5" t="s">
+      <c r="F42" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G42" s="6" t="s">
+      <c r="G42" s="2" t="s">
         <v>71</v>
       </c>
-      <c r="H42" s="5" t="s">
+      <c r="H42" s="10" t="s">
         <v>18</v>
       </c>
-      <c r="I42" s="6" t="s">
+      <c r="I42" s="2" t="s">
         <v>75</v>
       </c>
     </row>
     <row r="43" spans="1:10" ht="15.75" thickBot="1" x14ac:dyDescent="0.3">
-      <c r="A43" s="7"/>
-      <c r="B43" s="8"/>
-      <c r="C43" s="6" t="s">
+      <c r="A43" s="9"/>
+      <c r="B43" s="11"/>
+      <c r="C43" s="2" t="s">
         <v>51</v>
       </c>
-      <c r="D43" s="8"/>
-      <c r="E43" s="6" t="s">
+      <c r="D43" s="11"/>
+      <c r="E43" s="2" t="s">
         <v>79</v>
       </c>
-      <c r="F43" s="8"/>
-      <c r="G43" s="6" t="s">
+      <c r="F43" s="11"/>
+      <c r="G43" s="2" t="s">
         <v>72</v>
       </c>
-      <c r="H43" s="8"/>
-      <c r="I43" s="6" t="s">
+      <c r="H43" s="11"/>
+      <c r="I43" s="2" t="s">
         <v>72</v>
       </c>
     </row>
@@ -1902,27 +1935,27 @@
       <c r="J45"/>
     </row>
     <row r="46" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A46" s="24"/>
-      <c r="B46" s="24"/>
+      <c r="A46" s="7"/>
+      <c r="B46" s="7"/>
       <c r="C46"/>
-      <c r="D46" s="24"/>
-      <c r="E46" s="24"/>
+      <c r="D46" s="7"/>
+      <c r="E46" s="7"/>
       <c r="F46"/>
       <c r="G46"/>
-      <c r="H46" s="24"/>
-      <c r="I46" s="24"/>
+      <c r="H46" s="7"/>
+      <c r="I46" s="7"/>
       <c r="J46"/>
     </row>
     <row r="47" spans="1:10" x14ac:dyDescent="0.25">
-      <c r="A47" s="24"/>
-      <c r="B47" s="24"/>
+      <c r="A47" s="7"/>
+      <c r="B47" s="7"/>
       <c r="C47"/>
-      <c r="D47" s="24"/>
-      <c r="E47" s="24"/>
+      <c r="D47" s="7"/>
+      <c r="E47" s="7"/>
       <c r="F47"/>
       <c r="G47"/>
-      <c r="H47" s="24"/>
-      <c r="I47" s="24"/>
+      <c r="H47" s="7"/>
+      <c r="I47" s="7"/>
       <c r="J47"/>
     </row>
     <row r="48" spans="1:10" x14ac:dyDescent="0.25">
@@ -2023,6 +2056,85 @@
     </row>
   </sheetData>
   <mergeCells count="103">
+    <mergeCell ref="B2:C2"/>
+    <mergeCell ref="D2:E2"/>
+    <mergeCell ref="F2:G2"/>
+    <mergeCell ref="H2:I2"/>
+    <mergeCell ref="A3:I3"/>
+    <mergeCell ref="A33:A34"/>
+    <mergeCell ref="B33:B34"/>
+    <mergeCell ref="D33:D34"/>
+    <mergeCell ref="F33:F34"/>
+    <mergeCell ref="A24:A25"/>
+    <mergeCell ref="B24:B25"/>
+    <mergeCell ref="D24:D25"/>
+    <mergeCell ref="F24:F25"/>
+    <mergeCell ref="A15:A16"/>
+    <mergeCell ref="F15:F16"/>
+    <mergeCell ref="A4:A5"/>
+    <mergeCell ref="B4:B5"/>
+    <mergeCell ref="D4:D5"/>
+    <mergeCell ref="A8:I8"/>
+    <mergeCell ref="A9:A10"/>
+    <mergeCell ref="B9:C10"/>
+    <mergeCell ref="D9:E10"/>
+    <mergeCell ref="F9:F10"/>
+    <mergeCell ref="H9:I10"/>
+    <mergeCell ref="H4:H5"/>
+    <mergeCell ref="A6:A7"/>
+    <mergeCell ref="B6:B7"/>
+    <mergeCell ref="D6:D7"/>
+    <mergeCell ref="F6:F7"/>
+    <mergeCell ref="H6:H7"/>
+    <mergeCell ref="F4:F5"/>
+    <mergeCell ref="A17:I17"/>
+    <mergeCell ref="A18:A19"/>
+    <mergeCell ref="B18:C19"/>
+    <mergeCell ref="D18:E19"/>
+    <mergeCell ref="F18:F19"/>
+    <mergeCell ref="H18:I19"/>
+    <mergeCell ref="A11:A12"/>
+    <mergeCell ref="B11:C12"/>
+    <mergeCell ref="D11:E12"/>
+    <mergeCell ref="F11:F12"/>
+    <mergeCell ref="A13:A14"/>
+    <mergeCell ref="F13:F14"/>
+    <mergeCell ref="F27:F28"/>
+    <mergeCell ref="H27:I28"/>
+    <mergeCell ref="A20:A21"/>
+    <mergeCell ref="B20:C21"/>
+    <mergeCell ref="D20:E21"/>
+    <mergeCell ref="F20:F21"/>
+    <mergeCell ref="H20:H21"/>
+    <mergeCell ref="A22:A23"/>
+    <mergeCell ref="B22:B23"/>
+    <mergeCell ref="D22:D23"/>
+    <mergeCell ref="F22:F23"/>
+    <mergeCell ref="H22:H23"/>
+    <mergeCell ref="D13:D14"/>
+    <mergeCell ref="D15:D16"/>
+    <mergeCell ref="H33:H34"/>
+    <mergeCell ref="A35:I35"/>
+    <mergeCell ref="A36:A37"/>
+    <mergeCell ref="B36:C37"/>
+    <mergeCell ref="D36:E37"/>
+    <mergeCell ref="F36:F37"/>
+    <mergeCell ref="H36:I37"/>
+    <mergeCell ref="A29:A30"/>
+    <mergeCell ref="B29:C30"/>
+    <mergeCell ref="D29:E30"/>
+    <mergeCell ref="F29:F30"/>
+    <mergeCell ref="H29:H30"/>
+    <mergeCell ref="A31:A32"/>
+    <mergeCell ref="B31:B32"/>
+    <mergeCell ref="D31:D32"/>
+    <mergeCell ref="F31:F32"/>
+    <mergeCell ref="H31:H32"/>
+    <mergeCell ref="H24:H25"/>
+    <mergeCell ref="A26:I26"/>
+    <mergeCell ref="A27:A28"/>
+    <mergeCell ref="B27:C28"/>
+    <mergeCell ref="D27:E28"/>
     <mergeCell ref="A1:I1"/>
     <mergeCell ref="A46:B47"/>
     <mergeCell ref="D46:E47"/>
@@ -2047,85 +2159,6 @@
     <mergeCell ref="H38:H39"/>
     <mergeCell ref="B13:B14"/>
     <mergeCell ref="B15:B16"/>
-    <mergeCell ref="D13:D14"/>
-    <mergeCell ref="D15:D16"/>
-    <mergeCell ref="H33:H34"/>
-    <mergeCell ref="A35:I35"/>
-    <mergeCell ref="A36:A37"/>
-    <mergeCell ref="B36:C37"/>
-    <mergeCell ref="D36:E37"/>
-    <mergeCell ref="F36:F37"/>
-    <mergeCell ref="H36:I37"/>
-    <mergeCell ref="A29:A30"/>
-    <mergeCell ref="B29:C30"/>
-    <mergeCell ref="D29:E30"/>
-    <mergeCell ref="F29:F30"/>
-    <mergeCell ref="H29:H30"/>
-    <mergeCell ref="A31:A32"/>
-    <mergeCell ref="B31:B32"/>
-    <mergeCell ref="D31:D32"/>
-    <mergeCell ref="F31:F32"/>
-    <mergeCell ref="H31:H32"/>
-    <mergeCell ref="H24:H25"/>
-    <mergeCell ref="A26:I26"/>
-    <mergeCell ref="A27:A28"/>
-    <mergeCell ref="B27:C28"/>
-    <mergeCell ref="D27:E28"/>
-    <mergeCell ref="F27:F28"/>
-    <mergeCell ref="H27:I28"/>
-    <mergeCell ref="A20:A21"/>
-    <mergeCell ref="B20:C21"/>
-    <mergeCell ref="D20:E21"/>
-    <mergeCell ref="F20:F21"/>
-    <mergeCell ref="H20:H21"/>
-    <mergeCell ref="A22:A23"/>
-    <mergeCell ref="B22:B23"/>
-    <mergeCell ref="D22:D23"/>
-    <mergeCell ref="F22:F23"/>
-    <mergeCell ref="H22:H23"/>
-    <mergeCell ref="A17:I17"/>
-    <mergeCell ref="A18:A19"/>
-    <mergeCell ref="B18:C19"/>
-    <mergeCell ref="D18:E19"/>
-    <mergeCell ref="F18:F19"/>
-    <mergeCell ref="H18:I19"/>
-    <mergeCell ref="A11:A12"/>
-    <mergeCell ref="B11:C12"/>
-    <mergeCell ref="D11:E12"/>
-    <mergeCell ref="F11:F12"/>
-    <mergeCell ref="A13:A14"/>
-    <mergeCell ref="F13:F14"/>
-    <mergeCell ref="A8:I8"/>
-    <mergeCell ref="A9:A10"/>
-    <mergeCell ref="B9:C10"/>
-    <mergeCell ref="D9:E10"/>
-    <mergeCell ref="F9:F10"/>
-    <mergeCell ref="H9:I10"/>
-    <mergeCell ref="H4:H5"/>
-    <mergeCell ref="A6:A7"/>
-    <mergeCell ref="B6:B7"/>
-    <mergeCell ref="D6:D7"/>
-    <mergeCell ref="F6:F7"/>
-    <mergeCell ref="H6:H7"/>
-    <mergeCell ref="F4:F5"/>
-    <mergeCell ref="B2:C2"/>
-    <mergeCell ref="D2:E2"/>
-    <mergeCell ref="F2:G2"/>
-    <mergeCell ref="H2:I2"/>
-    <mergeCell ref="A3:I3"/>
-    <mergeCell ref="A33:A34"/>
-    <mergeCell ref="B33:B34"/>
-    <mergeCell ref="D33:D34"/>
-    <mergeCell ref="F33:F34"/>
-    <mergeCell ref="A24:A25"/>
-    <mergeCell ref="B24:B25"/>
-    <mergeCell ref="D24:D25"/>
-    <mergeCell ref="F24:F25"/>
-    <mergeCell ref="A15:A16"/>
-    <mergeCell ref="F15:F16"/>
-    <mergeCell ref="A4:A5"/>
-    <mergeCell ref="B4:B5"/>
-    <mergeCell ref="D4:D5"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup scale="62" orientation="landscape" r:id="rId1"/>
